--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{607EDA92-3739-4538-A97C-6941E63AB453}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E51A41F3-C376-41B1-8D63-B17F2C471E8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="329">
   <si>
     <t>要求情報(可変長)</t>
     <rPh sb="0" eb="2">
@@ -748,26 +748,6 @@
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m番ボタンのリリースイベントを発生させる</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m番ボタンのプレスイベントを発生させる</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハッセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1279,25 +1259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※返答が 'F' の場合は、BIDSppとの接続が確立されていないことを表します。</t>
-    <rPh sb="1" eb="3">
-      <t>ヘントウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bノッチ数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
@@ -1933,6 +1894,146 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BVEのウィンドウハンドルを取得できない(キーイベント送信時)</t>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両のm番ボタンのプレスイベントを発生させる</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両のm番ボタンのリリースイベントを発生させる</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panel0番の値</t>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panel255番の値</t>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound0番の値</t>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound255番の値</t>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア状態</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求情報の返答</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求情報の返答</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:ドアは閉まっている
+1:ドアは開いている</t>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2008,28 +2109,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,14 +2127,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2343,56 +2447,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="9"/>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -2412,37 +2516,37 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="9"/>
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="9"/>
       <c r="I8" t="s">
         <v>1</v>
       </c>
@@ -2457,17 +2561,17 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="9"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="9"/>
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -2479,36 +2583,36 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -2520,10 +2624,10 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="9"/>
       <c r="F13" t="s">
         <v>7</v>
       </c>
@@ -2539,159 +2643,176 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="D18:K18"/>
@@ -2708,23 +2829,6 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2764,7 +2868,7 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2775,7 +2879,7 @@
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -2784,7 +2888,7 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -2796,7 +2900,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -2804,7 +2908,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -2851,7 +2955,7 @@
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2862,7 +2966,7 @@
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -2871,7 +2975,7 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -2880,7 +2984,7 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -2889,7 +2993,7 @@
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2933,7 +3037,7 @@
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +3048,7 @@
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -2953,7 +3057,7 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -2962,7 +3066,7 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -2971,7 +3075,7 @@
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3015,7 +3119,7 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3130,7 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -3035,7 +3139,7 @@
       <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3051,1937 +3155,1937 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="4">
+        <v>-65536</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="9">
-        <v>-65536</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="F10" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="4">
         <f>E10+1</f>
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>251</v>
+      <c r="F11" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E31" si="0">E11+1</f>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E29" si="0">E11+1</f>
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>252</v>
+      <c r="F12" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>253</v>
+      <c r="F13" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>254</v>
+      <c r="F15" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="9">
+      <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>255</v>
+      <c r="F16" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="9">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>256</v>
+      <c r="F17" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="9">
+      <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>257</v>
+      <c r="F18" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="9">
+      <c r="B19" s="4">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>258</v>
+      <c r="F19" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9">
+      <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>259</v>
+      <c r="F20" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="9">
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="9">
+      <c r="B22" s="4">
         <v>13</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="9">
+      <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>260</v>
+      <c r="F23" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="9">
+      <c r="B24" s="4">
         <v>16</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>261</v>
+      <c r="F24" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>17</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>262</v>
+      <c r="F25" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="9">
+      <c r="B26" s="4">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="9">
+      <c r="B27" s="4">
         <v>19</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>263</v>
+      <c r="F27" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="9">
+      <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="9">
+      <c r="B29" s="4">
         <v>20</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>264</v>
+      <c r="F29" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="9">
+      <c r="B30" s="4">
         <v>21</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4">
+        <v>21</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="4">
+        <v>21</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="4">
+        <v>23</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="4">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="4">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="4">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="4">
+        <v>27</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="4">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="4">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="4">
+        <v>30</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="4">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="4">
+        <v>32</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="4">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="4">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="4">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="4">
+        <v>37</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="4">
+        <v>38</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="4">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4">
+        <v>41</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="4">
+        <v>42</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="4">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="4">
+        <v>44</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="4">
+        <v>44</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="4">
+        <v>45</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="4">
+        <v>46</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="4">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="4">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="4">
+        <v>49</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="4">
+        <v>50</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="4">
+        <v>51</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="4">
+        <v>52</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="4">
+        <v>53</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="4">
+        <v>54</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="4">
+        <v>55</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="4">
+        <v>56</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="4">
+        <v>57</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="4">
+        <v>65</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="4">
+        <v>66</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="4">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="4">
+        <v>68</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="4">
+        <v>69</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="4">
+        <v>70</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="4">
+        <v>71</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="4">
+        <v>72</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="4">
+        <v>73</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="4">
+        <v>74</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="4">
+        <v>75</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="4">
+        <v>76</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="4">
+        <v>77</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="4">
+        <v>78</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="4">
+        <v>79</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="4">
+        <v>80</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="4">
+        <v>81</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="4">
+        <v>82</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="4">
+        <v>83</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="4">
+        <v>84</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="4">
+        <v>85</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="4">
+        <v>86</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="4">
+        <v>87</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="4">
+        <v>88</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="4">
+        <v>89</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="4">
+        <v>90</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="4">
+        <v>91</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="4">
+        <v>92</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="4">
+        <v>93</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="4">
+        <v>95</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="4">
+        <v>96</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="4">
+        <v>97</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="4">
+        <v>98</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="4">
+        <v>99</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="4">
+        <v>100</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="4">
+        <v>101</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="4">
+        <v>102</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="4">
+        <v>103</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="4">
+        <v>104</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="4">
+        <v>105</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="4">
+        <v>106</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="4">
+        <v>107</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="4">
+        <v>108</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="4">
+        <v>109</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="4">
+        <v>110</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="4">
+        <v>111</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="4">
+        <v>112</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="4">
+        <v>113</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="4">
+        <v>114</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="4">
+        <v>115</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="4">
+        <v>116</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="4">
+        <v>117</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="4">
+        <v>118</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="4">
+        <v>119</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="4">
+        <v>120</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="4">
+        <v>121</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="4">
+        <v>122</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="4">
+        <v>123</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="4">
+        <v>124</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="4">
+        <v>125</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="4">
+        <v>126</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="4">
+        <v>127</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="4">
         <v>128</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="9">
-        <v>21</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="9">
-        <v>21</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="9">
-        <v>23</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="9">
-        <v>24</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="9">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="9">
-        <v>25</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="9">
-        <v>27</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="9">
-        <v>28</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="9">
-        <v>29</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="9">
-        <v>30</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="9">
-        <v>31</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="9">
-        <v>32</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="9">
-        <v>33</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="C133" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="4">
+        <v>129</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="4">
+        <v>130</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="4">
+        <v>131</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="4">
+        <v>132</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="4">
+        <v>133</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="4">
+        <v>134</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="4">
+        <v>135</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="4">
         <v>144</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="9">
-        <v>33</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="9">
-        <v>34</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="C141" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="4">
         <v>145</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="9">
-        <v>34</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="9">
-        <v>35</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="9">
-        <v>36</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="9">
-        <v>37</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="9">
-        <v>38</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="9">
-        <v>39</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="9">
-        <v>40</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="9">
-        <v>41</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="9">
-        <v>42</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="9">
-        <v>43</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="9">
-        <v>44</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="9">
-        <v>44</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="9">
-        <v>45</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="9">
-        <v>46</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="9">
-        <v>47</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="9">
-        <v>48</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="9">
-        <v>49</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="9">
-        <v>50</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="9">
-        <v>51</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="C142" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="4">
         <v>160</v>
       </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="9">
-        <v>52</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="C143" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="4">
         <v>161</v>
       </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="9">
-        <v>53</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="C144" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="4">
         <v>162</v>
       </c>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="9">
-        <v>54</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="C145" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="4">
         <v>163</v>
       </c>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="9">
-        <v>55</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="C146" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="4">
         <v>164</v>
       </c>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="9">
-        <v>56</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="C147" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="4">
         <v>165</v>
       </c>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="9">
-        <v>57</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="C148" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="4">
         <v>166</v>
       </c>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="9">
+      <c r="C149" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="4">
+        <v>167</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="9">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="4">
+        <v>168</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="4">
+        <v>169</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="4">
+        <v>170</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="4">
+        <v>171</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="4">
+        <v>172</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="9">
-        <v>67</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="9">
-        <v>68</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="9">
-        <v>69</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="9">
-        <v>70</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="9">
-        <v>71</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="4">
         <v>173</v>
       </c>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="9">
+      <c r="C156" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="4">
+        <v>174</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="4">
+        <v>175</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="4">
+        <v>176</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="4">
+        <v>177</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="4">
+        <v>178</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="4">
+        <v>179</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="4">
+        <v>180</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="4">
+        <v>181</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="4">
+        <v>182</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="4">
+        <v>183</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="4">
+        <v>186</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="4">
+        <v>186</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="4">
+        <v>187</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="4">
+        <v>188</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="4">
+        <v>189</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="4">
+        <v>190</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="4">
+        <v>191</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="4">
+        <v>191</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="4">
+        <v>192</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="4">
+        <v>192</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="4">
+        <v>219</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="4">
+        <v>219</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="4">
+        <v>220</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="4">
+        <v>220</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="4">
+        <v>221</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="4">
+        <v>221</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="4">
+        <v>222</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="4">
+        <v>222</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="4">
+        <v>223</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="4">
+        <v>226</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="4">
+        <v>226</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="4">
+        <v>229</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="4">
+        <v>246</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="4">
+        <v>247</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="4">
+        <v>248</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="4">
+        <v>249</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="4">
+        <v>250</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="4">
+        <v>251</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="4">
+        <v>253</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="4">
+        <v>254</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="4">
+        <v>65535</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="4">
+        <v>65536</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="4">
+        <v>131072</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="9">
-        <v>73</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="9">
-        <v>74</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="9">
-        <v>75</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="9">
-        <v>76</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="9">
-        <v>77</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="9">
-        <v>78</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="9">
-        <v>79</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="9">
-        <v>80</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="9">
-        <v>81</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="9">
-        <v>82</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="9">
-        <v>83</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="9">
-        <v>84</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="9">
-        <v>85</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="9">
-        <v>86</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="9">
-        <v>87</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="9">
-        <v>88</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="9">
-        <v>89</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" s="9"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="9">
-        <v>90</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="9">
-        <v>91</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="9">
-        <v>92</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E98" s="9"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="9">
-        <v>93</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="9">
-        <v>95</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="9">
-        <v>96</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="9">
-        <v>97</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="9">
-        <v>98</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="9">
-        <v>99</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="9">
-        <v>100</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="9">
-        <v>101</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="9">
-        <v>102</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="9">
-        <v>103</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="9">
-        <v>104</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="9">
-        <v>105</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="9">
-        <v>106</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="9">
-        <v>107</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="9">
-        <v>108</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="9">
-        <v>109</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="9">
-        <v>110</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="9">
-        <v>111</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="9">
-        <v>112</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="9">
-        <v>113</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="9">
-        <v>114</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="9">
-        <v>115</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="9">
-        <v>116</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="9">
-        <v>117</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="9">
-        <v>118</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="9">
-        <v>119</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="9">
-        <v>120</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="9">
-        <v>121</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="9">
-        <v>122</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="9">
-        <v>123</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="9">
-        <v>124</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="9">
-        <v>125</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="9">
-        <v>126</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="9">
-        <v>127</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="9">
-        <v>128</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="9">
-        <v>129</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="9"/>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="9">
-        <v>130</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E135" s="9"/>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="9">
-        <v>131</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E136" s="9"/>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="9">
-        <v>132</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="9">
-        <v>133</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E138" s="9"/>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="9">
-        <v>134</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E139" s="9"/>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="9">
-        <v>135</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E140" s="9"/>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="9">
-        <v>144</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E141" s="9"/>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="9">
-        <v>145</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" s="9"/>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="9">
-        <v>160</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E143" s="9"/>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="9">
-        <v>161</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E144" s="9"/>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="9">
-        <v>162</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="9">
-        <v>163</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="9">
-        <v>164</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="9">
-        <v>165</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="9">
-        <v>166</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="9">
-        <v>167</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E150" s="9"/>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="9">
-        <v>168</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="9">
-        <v>169</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="9">
-        <v>170</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="9">
-        <v>171</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E154" s="9"/>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="9">
-        <v>172</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="9">
-        <v>173</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="9">
-        <v>174</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E157" s="9"/>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="9">
-        <v>175</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="9">
-        <v>176</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="9">
-        <v>177</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="9">
-        <v>178</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="9">
-        <v>179</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="B163" s="9">
-        <v>180</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="9">
-        <v>181</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" s="9">
-        <v>182</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" s="9">
-        <v>183</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="9">
-        <v>186</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="2:5" ht="33">
-      <c r="B168" s="9">
-        <v>186</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="2:5" ht="33">
-      <c r="B169" s="9">
-        <v>187</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="2:5" ht="33">
-      <c r="B170" s="9">
-        <v>188</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="2:5" ht="33">
-      <c r="B171" s="9">
-        <v>189</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="2:5" ht="33">
-      <c r="B172" s="9">
-        <v>190</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="9">
-        <v>191</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="2:5" ht="33">
-      <c r="B174" s="9">
-        <v>191</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="9">
-        <v>192</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="2:5" ht="33">
-      <c r="B176" s="9">
-        <v>192</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="9">
-        <v>219</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="2:5" ht="33">
-      <c r="B178" s="9">
-        <v>219</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="9">
-        <v>220</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E179" s="9"/>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="9">
-        <v>220</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="9">
-        <v>221</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E181" s="9"/>
-    </row>
-    <row r="182" spans="2:5" ht="33">
-      <c r="B182" s="9">
-        <v>221</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" s="9">
-        <v>222</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="2:5" ht="33">
-      <c r="B184" s="9">
-        <v>222</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" s="9">
-        <v>223</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="9">
-        <v>226</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="2:5" ht="33">
-      <c r="B187" s="9">
-        <v>226</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="9">
-        <v>229</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" s="9">
-        <v>246</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="9">
-        <v>247</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" s="9">
-        <v>248</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E191" s="9"/>
-    </row>
-    <row r="192" spans="2:5">
-      <c r="B192" s="9">
-        <v>249</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="9">
-        <v>250</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="2:5">
-      <c r="B194" s="9">
-        <v>251</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="9">
-        <v>253</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="2:5">
-      <c r="B196" s="9">
-        <v>254</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="9">
-        <v>65535</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" s="9">
-        <v>65536</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="2:5">
-      <c r="B199" s="9">
-        <v>131072</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E199" s="9"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="9">
+      <c r="B200" s="4">
         <v>262144</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5007,84 +5111,93 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA8C37-0184-47DF-988F-B9F72A326868}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>263</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4">
         <f>B3+1</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>264</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>266</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5092,169 +5205,268 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>268</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11">
         <f>B10+1</f>
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>269</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12">
         <f t="shared" ref="B12:B23" si="0">B11+1</f>
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>271</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>272</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>275</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>276</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>277</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>278</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>280</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>281</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>282</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="B28">
         <f>B27+1</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>283</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="B29">
         <f t="shared" ref="B29:B30" si="1">B28+1</f>
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>284</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="37.5">
+      <c r="A40" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="15">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D36:D38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D10:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,13 +5504,13 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5318,43 +5530,43 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5363,10 +5575,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5375,13 +5587,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5390,13 +5602,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5405,13 +5617,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5420,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5432,10 +5644,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5444,10 +5656,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5456,7 +5668,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5465,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5474,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5483,14 +5698,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5499,5 +5714,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E51A41F3-C376-41B1-8D63-B17F2C471E8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D29758E-DF36-49BB-83B8-332A3FA6C658}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
@@ -379,22 +379,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ツウコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンドは、シリアル通信を通じてUTF-8エンコーディングの文字列として送信します。</t>
-    <rPh sb="10" eb="12">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2034,6 +2018,22 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドは、シリアル通信を通じてASCIIエンコーディングの文字列として送信します。</t>
+    <rPh sb="10" eb="12">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2131,6 +2131,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2150,9 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2447,56 +2447,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -2516,37 +2516,37 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8" t="s">
         <v>1</v>
       </c>
@@ -2561,17 +2561,17 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -2583,30 +2583,30 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" t="s">
         <v>1</v>
       </c>
@@ -2624,10 +2624,10 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" t="s">
         <v>7</v>
       </c>
@@ -2643,176 +2643,159 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D24:I24"/>
     <mergeCell ref="D18:K18"/>
@@ -2829,6 +2812,23 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,13 +2852,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2866,9 +2866,9 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2877,41 +2877,41 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2939,23 +2939,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2964,36 +2964,36 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3021,23 +3021,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3046,36 +3046,36 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3103,13 +3103,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3117,9 +3117,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3128,18 +3128,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3167,64 +3167,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="13">
+        <v>313</v>
+      </c>
+      <c r="D6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3233,23 +3233,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>314</v>
+      </c>
+      <c r="D7" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3257,13 +3257,13 @@
         <v>-65536</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3271,14 +3271,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="4">
         <f>E10+1</f>
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3286,14 +3286,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ref="E12:E29" si="0">E11+1</f>
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3301,14 +3301,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
@@ -3331,14 +3331,14 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3346,14 +3346,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3361,14 +3361,14 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3376,14 +3376,14 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -3391,14 +3391,14 @@
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -3406,14 +3406,14 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -3421,14 +3421,14 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3436,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -3451,14 +3451,14 @@
         <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3466,14 +3466,14 @@
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3481,14 +3481,14 @@
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3496,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
@@ -3511,14 +3511,14 @@
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -3526,7 +3526,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
@@ -3541,14 +3541,14 @@
         <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -3556,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -3565,7 +3565,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -3574,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -3583,7 +3583,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -3592,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -3601,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -3610,7 +3610,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -3619,7 +3619,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -3628,7 +3628,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -3637,7 +3637,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -3646,7 +3646,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -3655,7 +3655,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -3664,7 +3664,7 @@
         <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -3673,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4"/>
     </row>
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -3691,7 +3691,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="4"/>
     </row>
@@ -3700,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" s="4"/>
     </row>
@@ -3709,7 +3709,7 @@
         <v>35</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" s="4"/>
     </row>
@@ -3718,7 +3718,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="4"/>
     </row>
@@ -3727,7 +3727,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -3736,7 +3736,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50" s="4"/>
     </row>
@@ -3745,7 +3745,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4"/>
     </row>
@@ -3754,7 +3754,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="4"/>
     </row>
@@ -3763,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="4"/>
     </row>
@@ -3772,7 +3772,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="4"/>
     </row>
@@ -3781,7 +3781,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="4"/>
     </row>
@@ -3790,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -3799,7 +3799,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="4"/>
     </row>
@@ -3808,7 +3808,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -3817,7 +3817,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -3826,7 +3826,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -3835,7 +3835,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="4"/>
     </row>
@@ -3844,7 +3844,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -3853,7 +3853,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="4"/>
     </row>
@@ -3862,7 +3862,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" s="4"/>
     </row>
@@ -3871,7 +3871,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="4"/>
     </row>
@@ -3880,7 +3880,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -3889,7 +3889,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E67" s="4"/>
     </row>
@@ -3898,7 +3898,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -3907,7 +3907,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -3916,7 +3916,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -3925,7 +3925,7 @@
         <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" s="4"/>
     </row>
@@ -3934,7 +3934,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E72" s="4"/>
     </row>
@@ -3943,7 +3943,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" s="4"/>
     </row>
@@ -3952,7 +3952,7 @@
         <v>68</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="4"/>
     </row>
@@ -3961,7 +3961,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="4"/>
     </row>
@@ -3970,7 +3970,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="4"/>
     </row>
@@ -3979,7 +3979,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -3988,7 +3988,7 @@
         <v>72</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="4"/>
     </row>
@@ -3997,7 +3997,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E79" s="4"/>
     </row>
@@ -4006,7 +4006,7 @@
         <v>74</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E80" s="4"/>
     </row>
@@ -4015,7 +4015,7 @@
         <v>75</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="4"/>
     </row>
@@ -4024,7 +4024,7 @@
         <v>76</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82" s="4"/>
     </row>
@@ -4033,7 +4033,7 @@
         <v>77</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E83" s="4"/>
     </row>
@@ -4042,7 +4042,7 @@
         <v>78</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="4"/>
     </row>
@@ -4051,7 +4051,7 @@
         <v>79</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E85" s="4"/>
     </row>
@@ -4060,7 +4060,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="4"/>
     </row>
@@ -4069,7 +4069,7 @@
         <v>81</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" s="4"/>
     </row>
@@ -4078,7 +4078,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="4"/>
     </row>
@@ -4087,7 +4087,7 @@
         <v>83</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E89" s="4"/>
     </row>
@@ -4096,7 +4096,7 @@
         <v>84</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="4"/>
     </row>
@@ -4105,7 +4105,7 @@
         <v>85</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" s="4"/>
     </row>
@@ -4114,7 +4114,7 @@
         <v>86</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="4"/>
     </row>
@@ -4123,7 +4123,7 @@
         <v>87</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E93" s="4"/>
     </row>
@@ -4132,7 +4132,7 @@
         <v>88</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E94" s="4"/>
     </row>
@@ -4141,7 +4141,7 @@
         <v>89</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E95" s="4"/>
     </row>
@@ -4150,7 +4150,7 @@
         <v>90</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" s="4"/>
     </row>
@@ -4159,7 +4159,7 @@
         <v>91</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E97" s="4"/>
     </row>
@@ -4168,7 +4168,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E98" s="4"/>
     </row>
@@ -4177,7 +4177,7 @@
         <v>93</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E99" s="4"/>
     </row>
@@ -4186,7 +4186,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" s="4"/>
     </row>
@@ -4195,7 +4195,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E101" s="4"/>
     </row>
@@ -4204,7 +4204,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E102" s="4"/>
     </row>
@@ -4213,7 +4213,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E103" s="4"/>
     </row>
@@ -4222,7 +4222,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="4"/>
     </row>
@@ -4231,7 +4231,7 @@
         <v>100</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E105" s="4"/>
     </row>
@@ -4240,7 +4240,7 @@
         <v>101</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E106" s="4"/>
     </row>
@@ -4249,7 +4249,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" s="4"/>
     </row>
@@ -4258,7 +4258,7 @@
         <v>103</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E108" s="4"/>
     </row>
@@ -4267,7 +4267,7 @@
         <v>104</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E109" s="4"/>
     </row>
@@ -4276,7 +4276,7 @@
         <v>105</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E110" s="4"/>
     </row>
@@ -4285,7 +4285,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E111" s="4"/>
     </row>
@@ -4294,7 +4294,7 @@
         <v>107</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E112" s="4"/>
     </row>
@@ -4303,7 +4303,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E113" s="4"/>
     </row>
@@ -4312,7 +4312,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E114" s="4"/>
     </row>
@@ -4321,7 +4321,7 @@
         <v>110</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E115" s="4"/>
     </row>
@@ -4330,7 +4330,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E116" s="4"/>
     </row>
@@ -4339,7 +4339,7 @@
         <v>112</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E117" s="4"/>
     </row>
@@ -4348,7 +4348,7 @@
         <v>113</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E118" s="4"/>
     </row>
@@ -4357,7 +4357,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E119" s="4"/>
     </row>
@@ -4366,7 +4366,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="4"/>
     </row>
@@ -4375,7 +4375,7 @@
         <v>116</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121" s="4"/>
     </row>
@@ -4384,7 +4384,7 @@
         <v>117</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E122" s="4"/>
     </row>
@@ -4393,7 +4393,7 @@
         <v>118</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E123" s="4"/>
     </row>
@@ -4402,7 +4402,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E124" s="4"/>
     </row>
@@ -4411,7 +4411,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E125" s="4"/>
     </row>
@@ -4420,7 +4420,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E126" s="4"/>
     </row>
@@ -4429,7 +4429,7 @@
         <v>122</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E127" s="4"/>
     </row>
@@ -4438,7 +4438,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E128" s="4"/>
     </row>
@@ -4447,7 +4447,7 @@
         <v>124</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E129" s="4"/>
     </row>
@@ -4456,7 +4456,7 @@
         <v>125</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E130" s="4"/>
     </row>
@@ -4465,7 +4465,7 @@
         <v>126</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E131" s="4"/>
     </row>
@@ -4474,7 +4474,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E132" s="4"/>
     </row>
@@ -4483,7 +4483,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E133" s="4"/>
     </row>
@@ -4492,7 +4492,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E134" s="4"/>
     </row>
@@ -4501,7 +4501,7 @@
         <v>130</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E135" s="4"/>
     </row>
@@ -4510,7 +4510,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E136" s="4"/>
     </row>
@@ -4519,7 +4519,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E137" s="4"/>
     </row>
@@ -4528,7 +4528,7 @@
         <v>133</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E138" s="4"/>
     </row>
@@ -4537,7 +4537,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E139" s="4"/>
     </row>
@@ -4546,7 +4546,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E140" s="4"/>
     </row>
@@ -4555,7 +4555,7 @@
         <v>144</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E141" s="4"/>
     </row>
@@ -4564,7 +4564,7 @@
         <v>145</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E142" s="4"/>
     </row>
@@ -4573,7 +4573,7 @@
         <v>160</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E143" s="4"/>
     </row>
@@ -4582,7 +4582,7 @@
         <v>161</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144" s="4"/>
     </row>
@@ -4591,7 +4591,7 @@
         <v>162</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E145" s="4"/>
     </row>
@@ -4600,7 +4600,7 @@
         <v>163</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E146" s="4"/>
     </row>
@@ -4609,7 +4609,7 @@
         <v>164</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E147" s="4"/>
     </row>
@@ -4618,7 +4618,7 @@
         <v>165</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E148" s="4"/>
     </row>
@@ -4627,7 +4627,7 @@
         <v>166</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E149" s="4"/>
     </row>
@@ -4636,7 +4636,7 @@
         <v>167</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E150" s="4"/>
     </row>
@@ -4645,7 +4645,7 @@
         <v>168</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E151" s="4"/>
     </row>
@@ -4654,7 +4654,7 @@
         <v>169</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E152" s="4"/>
     </row>
@@ -4663,7 +4663,7 @@
         <v>170</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E153" s="4"/>
     </row>
@@ -4672,7 +4672,7 @@
         <v>171</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E154" s="4"/>
     </row>
@@ -4681,7 +4681,7 @@
         <v>172</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E155" s="4"/>
     </row>
@@ -4690,7 +4690,7 @@
         <v>173</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E156" s="4"/>
     </row>
@@ -4699,7 +4699,7 @@
         <v>174</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E157" s="4"/>
     </row>
@@ -4708,7 +4708,7 @@
         <v>175</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E158" s="4"/>
     </row>
@@ -4717,7 +4717,7 @@
         <v>176</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E159" s="4"/>
     </row>
@@ -4726,7 +4726,7 @@
         <v>177</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E160" s="4"/>
     </row>
@@ -4735,7 +4735,7 @@
         <v>178</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E161" s="4"/>
     </row>
@@ -4744,7 +4744,7 @@
         <v>179</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E162" s="4"/>
     </row>
@@ -4753,7 +4753,7 @@
         <v>180</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E163" s="4"/>
     </row>
@@ -4762,7 +4762,7 @@
         <v>181</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E164" s="4"/>
     </row>
@@ -4771,7 +4771,7 @@
         <v>182</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E165" s="4"/>
     </row>
@@ -4780,7 +4780,7 @@
         <v>183</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E166" s="4"/>
     </row>
@@ -4789,7 +4789,7 @@
         <v>186</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E167" s="4"/>
     </row>
@@ -4798,7 +4798,7 @@
         <v>186</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E168" s="4"/>
     </row>
@@ -4807,7 +4807,7 @@
         <v>187</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E169" s="4"/>
     </row>
@@ -4816,7 +4816,7 @@
         <v>188</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E170" s="4"/>
     </row>
@@ -4825,7 +4825,7 @@
         <v>189</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E171" s="4"/>
     </row>
@@ -4834,7 +4834,7 @@
         <v>190</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E172" s="4"/>
     </row>
@@ -4843,7 +4843,7 @@
         <v>191</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E173" s="4"/>
     </row>
@@ -4852,7 +4852,7 @@
         <v>191</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E174" s="4"/>
     </row>
@@ -4861,7 +4861,7 @@
         <v>192</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E175" s="4"/>
     </row>
@@ -4870,7 +4870,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E176" s="4"/>
     </row>
@@ -4879,7 +4879,7 @@
         <v>219</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177" s="4"/>
     </row>
@@ -4888,7 +4888,7 @@
         <v>219</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E178" s="4"/>
     </row>
@@ -4897,7 +4897,7 @@
         <v>220</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E179" s="4"/>
     </row>
@@ -4906,7 +4906,7 @@
         <v>220</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E180" s="4"/>
     </row>
@@ -4915,7 +4915,7 @@
         <v>221</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E181" s="4"/>
     </row>
@@ -4924,7 +4924,7 @@
         <v>221</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E182" s="4"/>
     </row>
@@ -4933,7 +4933,7 @@
         <v>222</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E183" s="4"/>
     </row>
@@ -4942,7 +4942,7 @@
         <v>222</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E184" s="4"/>
     </row>
@@ -4951,7 +4951,7 @@
         <v>223</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E185" s="4"/>
     </row>
@@ -4960,7 +4960,7 @@
         <v>226</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E186" s="4"/>
     </row>
@@ -4969,7 +4969,7 @@
         <v>226</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E187" s="4"/>
     </row>
@@ -4978,7 +4978,7 @@
         <v>229</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E188" s="4"/>
     </row>
@@ -4987,7 +4987,7 @@
         <v>246</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E189" s="4"/>
     </row>
@@ -4996,7 +4996,7 @@
         <v>247</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E190" s="4"/>
     </row>
@@ -5005,7 +5005,7 @@
         <v>248</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E191" s="4"/>
     </row>
@@ -5014,7 +5014,7 @@
         <v>249</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E192" s="4"/>
     </row>
@@ -5023,7 +5023,7 @@
         <v>250</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E193" s="4"/>
     </row>
@@ -5032,7 +5032,7 @@
         <v>251</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E194" s="4"/>
     </row>
@@ -5041,7 +5041,7 @@
         <v>253</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E195" s="4"/>
     </row>
@@ -5050,7 +5050,7 @@
         <v>254</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E196" s="4"/>
     </row>
@@ -5059,7 +5059,7 @@
         <v>65535</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E197" s="4"/>
     </row>
@@ -5068,7 +5068,7 @@
         <v>65536</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E198" s="4"/>
     </row>
@@ -5077,7 +5077,7 @@
         <v>131072</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E199" s="4"/>
     </row>
@@ -5086,7 +5086,7 @@
         <v>262144</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA8C37-0184-47DF-988F-B9F72A326868}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5125,39 +5125,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
+      <c r="D1" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>326</v>
+        <v>262</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5166,36 +5166,36 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>263</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>264</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>265</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>326</v>
+        <v>267</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5217,9 +5217,9 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>268</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12">
@@ -5227,9 +5227,9 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>269</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13">
@@ -5237,9 +5237,9 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4">
       <c r="B14">
@@ -5247,9 +5247,9 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15">
@@ -5257,9 +5257,9 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>272</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="B16">
@@ -5267,9 +5267,9 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>273</v>
+      </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
       <c r="B17">
@@ -5277,9 +5277,9 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>274</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18">
@@ -5287,9 +5287,9 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>275</v>
+      </c>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
       <c r="B19">
@@ -5297,9 +5297,9 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>276</v>
+      </c>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
       <c r="B20">
@@ -5307,9 +5307,9 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>277</v>
+      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
       <c r="B21">
@@ -5317,9 +5317,9 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22">
@@ -5327,9 +5327,9 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>279</v>
+      </c>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23">
@@ -5337,22 +5337,22 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>282</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>327</v>
+        <v>281</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5361,9 +5361,9 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29">
@@ -5371,9 +5371,9 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>283</v>
+      </c>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4">
       <c r="B30">
@@ -5381,80 +5381,80 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>284</v>
+      </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>327</v>
+        <v>319</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" t="s">
-        <v>318</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4">
       <c r="B34">
         <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>320</v>
+      </c>
+      <c r="D34" s="11"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D37" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4">
       <c r="B38">
         <v>255</v>
       </c>
       <c r="C38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="37.5">
+      <c r="A40" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="40" spans="1:4" ht="37.5">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="15">
-        <v>0</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>325</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5490,13 +5490,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5504,17 +5504,17 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5543,30 +5543,30 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5575,10 +5575,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5587,13 +5587,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5602,13 +5602,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5617,13 +5617,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
         <v>296</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>297</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5632,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
         <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5644,10 +5644,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5656,10 +5656,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
         <v>311</v>
-      </c>
-      <c r="C9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5668,10 +5668,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5680,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5689,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5698,14 +5698,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
